--- a/eval_utils/queries.xlsx
+++ b/eval_utils/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/im_rag/im_rag/eval_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96650583-C831-EB49-80EB-80782B1A9F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4FB9BA-E137-A942-88FD-C1E0137895C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16620" xr2:uid="{62D24E55-E2F4-7F45-ABEB-55CE1B074D24}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>What is his full name?</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>How good is his math?</t>
+  </si>
+  <si>
+    <t>Tell me how did he build the the pregnancy predictor project</t>
+  </si>
+  <si>
+    <t>What are his salary expectations</t>
   </si>
 </sst>
 </file>
@@ -422,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82CC35-2A53-0942-A3AB-B20C457BCFD1}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -478,6 +484,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/eval_utils/queries.xlsx
+++ b/eval_utils/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/im_rag/im_rag/eval_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4FB9BA-E137-A942-88FD-C1E0137895C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB90E3F-E39E-EF4F-8057-229EE30C2E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16620" xr2:uid="{62D24E55-E2F4-7F45-ABEB-55CE1B074D24}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>What is his full name?</t>
   </si>
@@ -64,10 +64,47 @@
     <t>How good is his math?</t>
   </si>
   <si>
-    <t>Tell me how did he build the the pregnancy predictor project</t>
-  </si>
-  <si>
     <t>What are his salary expectations</t>
+  </si>
+  <si>
+    <t>ground truth</t>
+  </si>
+  <si>
+    <t>His full name is Surya Govindasamy Ganesan</t>
+  </si>
+  <si>
+    <t>He is currently studying BA Business management at the university of Leeds till June 2025.</t>
+  </si>
+  <si>
+    <t>He is currently working at SAP as an intern as part of their placement program that allows students to do a year in the industry as part of their course.</t>
+  </si>
+  <si>
+    <t>The guilty project is a minimalist budgeting app that allows students to track their budget and control their impulse spending habits</t>
+  </si>
+  <si>
+    <t>The RAG chatbot that he created is by far his favourite project as he finds the topic of LLMs fascinating and interesting.</t>
+  </si>
+  <si>
+    <t>Surya is still trying to develop his skills in building LLM applications using knowledge graphs, creating agent chains and learning about building transformer architectures which will allow him to be a competent AI engineer.</t>
+  </si>
+  <si>
+    <t>Surya has developed his skills in machine learning, deep learning, python programming and building LLM applications by working on real life projects, all of which are crucial in becoming a competent AI engineer. He has also developed his soft skills by working in different sales driven roles that has allowed him to hone his presentation and communication skills. All of these skills will allow him to be a capable AI engineer.</t>
+  </si>
+  <si>
+    <t>Surya has studied maths as his primary subject in high school and has further developed his math skills in university as part of the business analytics module he undertook. Furthermore while self teaching himself to build neural networks and machine learning models he applied this mathemetical knowledge in a practical environment to build applications.</t>
+  </si>
+  <si>
+    <t>Based on the provided project description and methodology, the Pregnancy Predictor project was built using the following steps:
+1. Identified and filtered features with high predictive power through a Chi-Squared test, all of which were categorical.
+2. Built the predictive tool using logistic regression since the output variable was binary categorical.
+3. Chose the optimal cut-off value for pregnancy probability with the least error rate set at 50%.
+These steps involved data preprocessing, feature selection, model building using logistic regression, and setting the optimal cut-off value for the model to predict pregnancies in households based on customer purchase history data.</t>
+  </si>
+  <si>
+    <t>He is looking for a role as an AI engineer or an ML engineer with an expected salary of £35k pounds a year.</t>
+  </si>
+  <si>
+    <t>Tell me the methodology behind the pregnancy predictor project</t>
   </si>
 </sst>
 </file>
@@ -111,9 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,70 +468,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82CC35-2A53-0942-A3AB-B20C457BCFD1}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/eval_utils/queries.xlsx
+++ b/eval_utils/queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/im_rag/im_rag/eval_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB90E3F-E39E-EF4F-8057-229EE30C2E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2616596-95A2-7844-B5C8-5571B7CDC3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16620" xr2:uid="{62D24E55-E2F4-7F45-ABEB-55CE1B074D24}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{62D24E55-E2F4-7F45-ABEB-55CE1B074D24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>What is his full name?</t>
   </si>
@@ -76,35 +76,79 @@
     <t>He is currently studying BA Business management at the university of Leeds till June 2025.</t>
   </si>
   <si>
-    <t>He is currently working at SAP as an intern as part of their placement program that allows students to do a year in the industry as part of their course.</t>
-  </si>
-  <si>
-    <t>The guilty project is a minimalist budgeting app that allows students to track their budget and control their impulse spending habits</t>
-  </si>
-  <si>
     <t>The RAG chatbot that he created is by far his favourite project as he finds the topic of LLMs fascinating and interesting.</t>
   </si>
   <si>
-    <t>Surya is still trying to develop his skills in building LLM applications using knowledge graphs, creating agent chains and learning about building transformer architectures which will allow him to be a competent AI engineer.</t>
-  </si>
-  <si>
     <t>Surya has developed his skills in machine learning, deep learning, python programming and building LLM applications by working on real life projects, all of which are crucial in becoming a competent AI engineer. He has also developed his soft skills by working in different sales driven roles that has allowed him to hone his presentation and communication skills. All of these skills will allow him to be a capable AI engineer.</t>
   </si>
   <si>
-    <t>Surya has studied maths as his primary subject in high school and has further developed his math skills in university as part of the business analytics module he undertook. Furthermore while self teaching himself to build neural networks and machine learning models he applied this mathemetical knowledge in a practical environment to build applications.</t>
-  </si>
-  <si>
-    <t>Based on the provided project description and methodology, the Pregnancy Predictor project was built using the following steps:
+    <t>Tell me the methodology behind the pregnancy predictor project</t>
+  </si>
+  <si>
+    <t>He is looking for an expected salary of £35k pounds a year, preferably in london.</t>
+  </si>
+  <si>
+    <t>He is currently working at SAP as an intern as part of their placement program.</t>
+  </si>
+  <si>
+    <t>The Guilty project is a budgeting app designed for minimalist students to control impulse spending behaviors. It was founded by Surya during his second year at university. The app was developed with Flutter for the front end and Python with Flask for the backend.</t>
+  </si>
+  <si>
+    <t>Surya has a strong foundation in math as he has been studying math from high school and has also furhter developed these skills on his pursuit to being an AI engineer. He has studied maths in high school and have also delved into the math behind building predictive models like linear regression and logistic regression during their university studies. Hence, he has a strong foundation in mathematics that will help him excel as an AI engineer.</t>
+  </si>
+  <si>
+    <t>Surya is trying to develop his skills in using Knowledge graphs in his Langchain applications, building multimodal retrieval applications, and building and training transformer models. These are the skills that he currently lacks but is actively working on improving</t>
+  </si>
+  <si>
+    <t>What machine learning concepts did Surya self-teach himself?</t>
+  </si>
+  <si>
+    <t>Surya self-taught himself machine learning concepts in python like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques</t>
+  </si>
+  <si>
+    <t>Tell me the methodology behind the Deal Success Predictor</t>
+  </si>
+  <si>
+    <t>The methedology behind the Pregnancy Predictor project is as following:
+1. Created a data set of 100 deals with 22 features, half of the deals won within one quarter of engagement and the other half stagnant or lost. 2. Conduct exploratory data analysis and hypothesis testing with *Scipy* and pandas to filter significant features. 3. Built and train a *Random Forests* model to predict deals that will are likely to close within a quarter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The methedology behind the Pregnancy Predictor project is as following:
 1. Identified and filtered features with high predictive power through a Chi-Squared test, all of which were categorical.
 2. Built the predictive tool using logistic regression since the output variable was binary categorical.
 3. Chose the optimal cut-off value for pregnancy probability with the least error rate set at 50%.
-These steps involved data preprocessing, feature selection, model building using logistic regression, and setting the optimal cut-off value for the model to predict pregnancies in households based on customer purchase history data.</t>
-  </si>
-  <si>
-    <t>He is looking for a role as an AI engineer or an ML engineer with an expected salary of £35k pounds a year.</t>
-  </si>
-  <si>
-    <t>Tell me the methodology behind the pregnancy predictor project</t>
+</t>
+  </si>
+  <si>
+    <t>What did Surya do as an associate business analyst at SAP?</t>
+  </si>
+  <si>
+    <t>Surya created end of quarter and end of year performance reports using excel and SAP’s SAC database (SAP Analytics cloud database), highlighting trends that occurred in the period, tracking targets and analysing anomalies.</t>
+  </si>
+  <si>
+    <t>What are the relevant modules Surya studied at university?</t>
+  </si>
+  <si>
+    <t>Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.</t>
+  </si>
+  <si>
+    <t>How does the Guilty project app work?</t>
+  </si>
+  <si>
+    <t>Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget. The app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.</t>
+  </si>
+  <si>
+    <t>What are the Github repositories for the Guilty project app?</t>
+  </si>
+  <si>
+    <t>Flutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git) 
+Python server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)</t>
+  </si>
+  <si>
+    <t>What python module is the Deal Success Predictor project based on?</t>
+  </si>
+  <si>
+    <t>It is based on a python module called Scikit-learn.</t>
   </si>
 </sst>
 </file>
@@ -468,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82CC35-2A53-0942-A3AB-B20C457BCFD1}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -517,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -525,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -533,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -541,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -549,15 +593,15 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,7 +609,63 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/eval_utils/queries.xlsx
+++ b/eval_utils/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/im_rag/im_rag/eval_utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2616596-95A2-7844-B5C8-5571B7CDC3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6EDE9D-4ACA-7A4E-BBAE-B979D34C29E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{62D24E55-E2F4-7F45-ABEB-55CE1B074D24}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A14" sqref="A14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
